--- a/MDO/client-assets/assets/common/user-bulk-upload-sample.xlsx
+++ b/MDO/client-assets/assets/common/user-bulk-upload-sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26404"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{350E043D-D222-463E-BA68-51E259736FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5C901F2-A016-4E0E-B97E-06F03226D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,24 +35,60 @@
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{34B5A6C4-93BC-4202-B7B9-FF39DAEE842A}">
       <text>
-        <t xml:space="preserve">Email Id for the user.
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Email Id for the user.
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DDB40CBC-1896-4134-9341-7093D58D2749}">
       <text>
-        <t>Mobile Number of the User</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Mobile Number of the User</t>
+        </r>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{43D12F7C-85CF-4C3B-B674-173B6B7C2871}">
       <text>
-        <t>Once the record is processed - the status will be updated in this column. 
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Once the record is processed - the status will be updated in this column. 
 Status would be SUCCESS / FAILED.</t>
+        </r>
       </text>
     </comment>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D59FB896-8C6D-4D96-9130-0C1754D6D65D}">
       <text>
-        <t>If there is any error to create the user the error details would be updated in this column.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>If there is any error to create the user the error details would be updated in this column.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -60,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>First Name</t>
   </si>
@@ -78,16 +114,42 @@
   </si>
   <si>
     <t>Error Details</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>ramesh.kumar@yopmail.com</t>
+  </si>
+  <si>
+    <t>Gita</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>gita.ben@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,15 +199,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,14 +526,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
@@ -495,18 +560,34 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9876543210</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9012345678</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
@@ -535,7 +616,11 @@
       <c r="F6" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{280A44BA-9B49-4416-81B8-9A00D06CC2ED}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{082F8A2C-2E0E-4E7B-9B38-B4C7C69ED955}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/MDO/client-assets/assets/common/user-bulk-upload-sample.xlsx
+++ b/MDO/client-assets/assets/common/user-bulk-upload-sample.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5C901F2-A016-4E0E-B97E-06F03226D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IGOT\NIC\sunbird-cb-portal-assets\MDO\client-assets\assets\common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F2FBA6-9441-4760-9FA3-BE1CC56EDFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="5556" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +38,7 @@
     <author>Karthikeyan Rajendran</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{34B5A6C4-93BC-4202-B7B9-FF39DAEE842A}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AFB07BED-1FC8-4D11-AD29-217F00DFC567}">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DDB40CBC-1896-4134-9341-7093D58D2749}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B67DCAC6-F5D7-4A7E-9E15-750A93421A90}">
       <text>
         <r>
           <rPr>
@@ -62,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{43D12F7C-85CF-4C3B-B674-173B6B7C2871}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{182F986D-585E-4DAE-B789-D828B926FAA7}">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D59FB896-8C6D-4D96-9130-0C1754D6D65D}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3B207D14-ECB2-43C5-A3B5-61D78FF60E8F}">
       <text>
         <r>
           <rPr>
@@ -138,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,16 +151,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,12 +162,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,18 +190,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,23 +510,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,66 +546,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>9876543210</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>9012345678</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{280A44BA-9B49-4416-81B8-9A00D06CC2ED}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{082F8A2C-2E0E-4E7B-9B38-B4C7C69ED955}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{718E1908-A3ED-4CB6-B530-B4E62702BFB5}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{ECE8344A-B17E-4C17-9DAF-BF636214F48E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>

--- a/MDO/client-assets/assets/common/user-bulk-upload-sample.xlsx
+++ b/MDO/client-assets/assets/common/user-bulk-upload-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t xml:space="preserve">Full Name</t>
   </si>
@@ -43,28 +43,34 @@
     <t xml:space="preserve">External Reference System</t>
   </si>
   <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
     <t xml:space="preserve">New User</t>
   </si>
   <si>
+    <t xml:space="preserve">new_user01@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractual Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">southwest,s2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USERABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_user03@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1,s2</t>
+  </si>
+  <si>
     <t xml:space="preserve">newuser_08@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractual Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1,s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USER123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USERABC</t>
   </si>
 </sst>
 </file>
@@ -266,13 +272,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.14"/>
@@ -280,12 +286,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -307,45 +313,77 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>8688586858</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>8688885858</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>8688585858</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="F4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D4" type="list">
       <formula1>"Group A,Group B,Group C,Group D,Contractual Staff"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="newuser_08@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="newuser_08@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/MDO/client-assets/assets/common/user-bulk-upload-sample.xlsx
+++ b/MDO/client-assets/assets/common/user-bulk-upload-sample.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IGOT\NIC\sunbird-cb-portal-assets\MDO\client-assets\assets\common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saurav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F2FBA6-9441-4760-9FA3-BE1CC56EDFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC70103-5F32-4C26-8C8C-0FD2560511A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="5556" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7311328C-3CC2-4382-A573-CD63A7AF875D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -32,124 +35,51 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Karthikeyan Rajendran</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AFB07BED-1FC8-4D11-AD29-217F00DFC567}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Email Id for the user.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B67DCAC6-F5D7-4A7E-9E15-750A93421A90}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Mobile Number of the User</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{182F986D-585E-4DAE-B789-D828B926FAA7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Once the record is processed - the status will be updated in this column. 
-Status would be SUCCESS / FAILED.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3B207D14-ECB2-43C5-A3B5-61D78FF60E8F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>If there is any error to create the user the error details would be updated in this column.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>External Reference ID</t>
+  </si>
+  <si>
+    <t>External Reference System</t>
+  </si>
   <si>
     <t>First Name</t>
   </si>
   <si>
     <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email Id</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Error Details</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>ramesh.kumar@yopmail.com</t>
-  </si>
-  <si>
-    <t>Gita</t>
-  </si>
-  <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>gita.ben@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,7 +92,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,16 +106,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -195,13 +125,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,77 +439,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB659A-788E-42FA-AA49-4E47406AB9C7}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E409" sqref="E409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>9876543210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>9012345678</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{718E1908-A3ED-4CB6-B530-B4E62702BFB5}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{ECE8344A-B17E-4C17-9DAF-BF636214F48E}"/>
-  </hyperlinks>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E421" xr:uid="{8BD4366F-DACE-4453-B467-284AE2FFDFD3}">
+      <formula1>"Group A,Group B,Group C,Group D,Contractual Staff, Others"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/MDO/client-assets/assets/common/user-bulk-upload-sample.xlsx
+++ b/MDO/client-assets/assets/common/user-bulk-upload-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E46F02CA63F5329F3750BA89C655F65AD2BC8B01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,40 +20,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External Reference ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External Reference System</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>External Reference ID</t>
+  </si>
+  <si>
+    <t>External Reference System</t>
+  </si>
+  <si>
+    <t>New User</t>
+  </si>
+  <si>
+    <t>new_user01@yopmail.com</t>
+  </si>
+  <si>
+    <t>Contractual Staff</t>
+  </si>
+  <si>
+    <t>southwest,s2</t>
+  </si>
+  <si>
+    <t>USER123</t>
+  </si>
+  <si>
+    <t>USERABC</t>
+  </si>
+  <si>
+    <t>new_user03@yopmail.com</t>
+  </si>
+  <si>
+    <t>Group B</t>
+  </si>
+  <si>
+    <t>s1,s2</t>
+  </si>
+  <si>
+    <t>newuser_08@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,22 +87,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -99,68 +116,44 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -185,7 +178,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0563C1"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -219,28 +212,344 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="13.9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -262,27 +571,78 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="13.9">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>8688586858</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="2"/>
+    <row r="3" spans="1:7" ht="13.9">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>8688885858</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" spans="1:7" ht="14.85">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>8688585858</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2" type="list">
-      <formula1>"Group A,Group B,Group C,Group D,Contractual Staff,Others"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Group A,Group B,Group C,Group D,Contractual Staff"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>